--- a/100runs/run009/NotionalETEOutput009.xlsx
+++ b/100runs/run009/NotionalETEOutput009.xlsx
@@ -49,22 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>MISSILE_HELLMASKER_427.MISSILE_HELLMASKER_427</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_142.MISSILE_HIGHWIND_142</t>
+    <t>MISSILE_HIGHWIND_53.MISSILE_HIGHWIND_53</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_269.MISSILE_HELLMASKER_269</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -480,22 +480,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>262.2597182407895</v>
+        <v>1116579.108140846</v>
       </c>
       <c r="G2">
-        <v>-78.62235250786841</v>
+        <v>4841124.927221398</v>
       </c>
       <c r="H2">
-        <v>637.3285473762146</v>
+        <v>3985231.040083717</v>
       </c>
       <c r="I2">
-        <v>-1399.030731652096</v>
+        <v>1114860.501003567</v>
       </c>
       <c r="J2">
-        <v>2666.230355072217</v>
+        <v>4843230.782532807</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984371.149340714</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,22 +515,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>262.2597182407895</v>
+        <v>1116579.108140846</v>
       </c>
       <c r="G3">
-        <v>-78.62235250786841</v>
+        <v>4841124.927221398</v>
       </c>
       <c r="H3">
-        <v>637.3285473762146</v>
+        <v>3985231.040083717</v>
       </c>
       <c r="I3">
-        <v>-1371.410139757948</v>
+        <v>1114890.114977282</v>
       </c>
       <c r="J3">
-        <v>2601.372184384509</v>
+        <v>4843182.130869153</v>
       </c>
       <c r="K3">
-        <v>266.782488546402</v>
+        <v>3984674.945395836</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,22 +550,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>262.2597182407895</v>
+        <v>1116579.108140846</v>
       </c>
       <c r="G4">
-        <v>-78.62235250786841</v>
+        <v>4841124.927221398</v>
       </c>
       <c r="H4">
-        <v>637.3285473762146</v>
+        <v>3985231.040083717</v>
       </c>
       <c r="I4">
-        <v>-1343.109416198884</v>
+        <v>1114920.458167855</v>
       </c>
       <c r="J4">
-        <v>2536.514013696802</v>
+        <v>4843133.479205498</v>
       </c>
       <c r="K4">
-        <v>520.2619793268543</v>
+        <v>3984963.592787098</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,22 +585,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>262.2597182407895</v>
+        <v>1116579.108140846</v>
       </c>
       <c r="G5">
-        <v>-78.62235250786841</v>
+        <v>4841124.927221398</v>
       </c>
       <c r="H5">
-        <v>637.3285473762146</v>
+        <v>3985231.040083717</v>
       </c>
       <c r="I5">
-        <v>-1314.111813358367</v>
+        <v>1114951.548531581</v>
       </c>
       <c r="J5">
-        <v>2471.655843009094</v>
+        <v>4843084.827541843</v>
       </c>
       <c r="K5">
-        <v>760.4384723413589</v>
+        <v>3985237.0915145</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,22 +620,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>262.2597182407895</v>
+        <v>1116579.108140846</v>
       </c>
       <c r="G6">
-        <v>-78.62235250786841</v>
+        <v>4841124.927221398</v>
       </c>
       <c r="H6">
-        <v>637.3285473762146</v>
+        <v>3985231.040083717</v>
       </c>
       <c r="I6">
-        <v>-1284.400171225208</v>
+        <v>1114983.404466911</v>
       </c>
       <c r="J6">
-        <v>2406.797672321386</v>
+        <v>4843036.175878189</v>
       </c>
       <c r="K6">
-        <v>987.3119675899142</v>
+        <v>3985495.441578044</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,22 +655,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>262.2597182407895</v>
+        <v>1116579.108140846</v>
       </c>
       <c r="G7">
-        <v>-78.62235250786841</v>
+        <v>4841124.927221398</v>
       </c>
       <c r="H7">
-        <v>637.3285473762146</v>
+        <v>3985231.040083717</v>
       </c>
       <c r="I7">
-        <v>-1253.956907238729</v>
+        <v>1115016.044825341</v>
       </c>
       <c r="J7">
-        <v>2341.939501633678</v>
+        <v>4842987.524214534</v>
       </c>
       <c r="K7">
-        <v>1200.882465072522</v>
+        <v>3985738.642977728</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,22 +690,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>262.2597182407895</v>
+        <v>1116579.108140846</v>
       </c>
       <c r="G8">
-        <v>-78.62235250786841</v>
+        <v>4841124.927221398</v>
       </c>
       <c r="H8">
-        <v>637.3285473762146</v>
+        <v>3985231.040083717</v>
       </c>
       <c r="I8">
-        <v>-1222.764005883872</v>
+        <v>1115049.488922569</v>
       </c>
       <c r="J8">
-        <v>2277.08133094597</v>
+        <v>4842938.872550879</v>
       </c>
       <c r="K8">
-        <v>1401.149964789181</v>
+        <v>3985966.695713552</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,22 +725,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>262.2597182407895</v>
+        <v>1116579.108140846</v>
       </c>
       <c r="G9">
-        <v>-78.62235250786841</v>
+        <v>4841124.927221398</v>
       </c>
       <c r="H9">
-        <v>637.3285473762146</v>
+        <v>3985231.040083717</v>
       </c>
       <c r="I9">
-        <v>-1190.803008030095</v>
+        <v>1115083.756549924</v>
       </c>
       <c r="J9">
-        <v>2212.223160258263</v>
+        <v>4842890.220887225</v>
       </c>
       <c r="K9">
-        <v>1588.114466739891</v>
+        <v>3986179.599785517</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,22 +760,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>262.2597182407895</v>
+        <v>1116579.108140846</v>
       </c>
       <c r="G10">
-        <v>-65.63958903519321</v>
+        <v>4841141.44004185</v>
       </c>
       <c r="H10">
-        <v>637.3285473762146</v>
+        <v>3985231.040083717</v>
       </c>
       <c r="I10">
-        <v>-1158.055000007749</v>
+        <v>1115118.867986076</v>
       </c>
       <c r="J10">
-        <v>2147.364989570555</v>
+        <v>4842841.569223571</v>
       </c>
       <c r="K10">
-        <v>1761.775970924652</v>
+        <v>3986377.355193621</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,22 +795,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>203.5441356448304</v>
+        <v>1116530.427550731</v>
       </c>
       <c r="G11">
-        <v>-52.65682556251799</v>
+        <v>4841157.952862302</v>
       </c>
       <c r="H11">
-        <v>785.184481748128</v>
+        <v>3985430.294626073</v>
       </c>
       <c r="I11">
-        <v>-1124.500602415466</v>
+        <v>1115154.844009042</v>
       </c>
       <c r="J11">
-        <v>2082.506818882848</v>
+        <v>4842792.917559916</v>
       </c>
       <c r="K11">
-        <v>1922.134477343464</v>
+        <v>3986559.961937867</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,22 +830,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>169.0516763612879</v>
+        <v>1116501.83014612</v>
       </c>
       <c r="G12">
-        <v>-39.67406208984279</v>
+        <v>4841174.465682753</v>
       </c>
       <c r="H12">
-        <v>873.2550378995948</v>
+        <v>3985548.980821765</v>
       </c>
       <c r="I12">
-        <v>-1090.119958651953</v>
+        <v>1115191.705908476</v>
       </c>
       <c r="J12">
-        <v>2017.64864819514</v>
+        <v>4842744.265896261</v>
       </c>
       <c r="K12">
-        <v>2069.189985996329</v>
+        <v>3986727.420018254</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,22 +865,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>147.2775055666718</v>
+        <v>1116483.777366318</v>
       </c>
       <c r="G13">
-        <v>-26.69129861716758</v>
+        <v>4841190.978503206</v>
       </c>
       <c r="H13">
-        <v>936.193111919716</v>
+        <v>3985633.797824132</v>
       </c>
       <c r="I13">
-        <v>-1054.892723165375</v>
+        <v>1115229.475498271</v>
       </c>
       <c r="J13">
-        <v>1952.790477507432</v>
+        <v>4842695.614232606</v>
       </c>
       <c r="K13">
-        <v>2202.942496883245</v>
+        <v>3986879.72943478</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,22 +900,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>132.0922872410548</v>
+        <v>1116471.187430964</v>
       </c>
       <c r="G14">
-        <v>-13.70853514449236</v>
+        <v>4841207.491323657</v>
       </c>
       <c r="H14">
-        <v>985.2029564400866</v>
+        <v>3985699.844778434</v>
       </c>
       <c r="I14">
-        <v>-1018.798049413404</v>
+        <v>1115268.175129467</v>
       </c>
       <c r="J14">
-        <v>1887.932306819724</v>
+        <v>4842646.962568952</v>
       </c>
       <c r="K14">
-        <v>2323.392010004213</v>
+        <v>3987016.890187447</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,22 +935,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>120.7636596247408</v>
+        <v>1116461.794962165</v>
       </c>
       <c r="G15">
-        <v>-0.7257716718171575</v>
+        <v>4841224.004144109</v>
       </c>
       <c r="H15">
-        <v>1025.345820652329</v>
+        <v>3985753.942357077</v>
       </c>
       <c r="I15">
-        <v>-981.8145775267807</v>
+        <v>1115307.827703479</v>
       </c>
       <c r="J15">
-        <v>1823.074136132017</v>
+        <v>4842598.310905298</v>
       </c>
       <c r="K15">
-        <v>2430.538525359231</v>
+        <v>3987138.902276255</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,22 +970,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>111.9062548247288</v>
+        <v>1116454.451363183</v>
       </c>
       <c r="G16">
-        <v>12.25699180085806</v>
+        <v>4841240.51696456</v>
       </c>
       <c r="H16">
-        <v>1059.343896353035</v>
+        <v>3985799.759057256</v>
       </c>
       <c r="I16">
-        <v>-943.9204216691198</v>
+        <v>1115348.456685646</v>
       </c>
       <c r="J16">
-        <v>1758.215965444308</v>
+        <v>4842549.659241643</v>
       </c>
       <c r="K16">
-        <v>2524.382042948301</v>
+        <v>3987245.765701204</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,22 +1005,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>104.7399694127283</v>
+        <v>1116448.509856902</v>
       </c>
       <c r="G17">
-        <v>25.23975527353327</v>
+        <v>4841257.029785013</v>
       </c>
       <c r="H17">
-        <v>1088.831035051026</v>
+        <v>3985839.496700196</v>
       </c>
       <c r="I17">
-        <v>-905.093157085448</v>
+        <v>1115390.086119121</v>
       </c>
       <c r="J17">
-        <v>1693.357794756601</v>
+        <v>4842501.007577988</v>
       </c>
       <c r="K17">
-        <v>2604.922562771422</v>
+        <v>3987337.480462292</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,22 +1040,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>98.78939903022616</v>
+        <v>1116443.576289611</v>
       </c>
       <c r="G18">
-        <v>38.22251874620847</v>
+        <v>4841273.542605464</v>
       </c>
       <c r="H18">
-        <v>1114.86526065992</v>
+        <v>3985874.581106725</v>
       </c>
       <c r="I18">
-        <v>-865.309806831832</v>
+        <v>1115432.740639097</v>
       </c>
       <c r="J18">
-        <v>1628.499624068893</v>
+        <v>4842452.355914334</v>
       </c>
       <c r="K18">
-        <v>2672.160084828595</v>
+        <v>3987414.046559521</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,22 +1075,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>93.74673835584679</v>
+        <v>1116439.395462537</v>
       </c>
       <c r="G19">
-        <v>51.2052822188837</v>
+        <v>4841290.055425916</v>
       </c>
       <c r="H19">
-        <v>1138.171131417909</v>
+        <v>3985905.988710565</v>
       </c>
       <c r="I19">
-        <v>-824.5468281782314</v>
+        <v>1115476.445487386</v>
       </c>
       <c r="J19">
-        <v>1563.641453381185</v>
+        <v>4842403.704250679</v>
       </c>
       <c r="K19">
-        <v>2726.09460911982</v>
+        <v>3987475.463992891</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,22 +1110,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>89.40297814869146</v>
+        <v>1116435.794087896</v>
       </c>
       <c r="G20">
-        <v>64.1880456915589</v>
+        <v>4841306.568246368</v>
       </c>
       <c r="H20">
-        <v>1159.26664595098</v>
+        <v>3985934.417580274</v>
       </c>
       <c r="I20">
-        <v>-782.7800986765387</v>
+        <v>1115521.226527356</v>
       </c>
       <c r="J20">
-        <v>1498.783282693478</v>
+        <v>4842355.052587024</v>
       </c>
       <c r="K20">
-        <v>2766.726135645095</v>
+        <v>3987521.732762402</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,22 +1145,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>85.61065103822118</v>
+        <v>1116432.649901745</v>
       </c>
       <c r="G21">
-        <v>77.1708091642341</v>
+        <v>4841323.08106682</v>
       </c>
       <c r="H21">
-        <v>1178.534989745753</v>
+        <v>3985960.384106685</v>
       </c>
       <c r="I21">
-        <v>-739.9849018855537</v>
+        <v>1115567.110259238</v>
       </c>
       <c r="J21">
-        <v>1433.92511200577</v>
+        <v>4842306.40092337</v>
       </c>
       <c r="K21">
-        <v>2794.054664404423</v>
+        <v>3987552.852868053</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,22 +1180,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>82.2623846299882</v>
+        <v>1116429.873882546</v>
       </c>
       <c r="G22">
-        <v>90.15357263690933</v>
+        <v>4841339.593887271</v>
       </c>
       <c r="H22">
-        <v>1196.267604903938</v>
+        <v>3985984.28104483</v>
       </c>
       <c r="I22">
-        <v>-696.1359127444493</v>
+        <v>1115614.123835805</v>
       </c>
       <c r="J22">
-        <v>1369.066941318062</v>
+        <v>4842257.749259716</v>
       </c>
       <c r="K22">
-        <v>2808.080195397801</v>
+        <v>3987568.824309844</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,22 +1215,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>79.27791766722532</v>
+        <v>1116427.399486372</v>
       </c>
       <c r="G23">
-        <v>103.1363361095845</v>
+        <v>4841356.106707724</v>
       </c>
       <c r="H23">
-        <v>1212.691325090565</v>
+        <v>3986006.414081718</v>
       </c>
       <c r="I23">
-        <v>-651.2071825860756</v>
+        <v>1115662.295078443</v>
       </c>
       <c r="J23">
-        <v>1304.208770630355</v>
+        <v>4842209.097596061</v>
       </c>
       <c r="K23">
-        <v>2808.802728625231</v>
+        <v>3987569.647087776</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,22 +1250,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>76.59590276730198</v>
+        <v>1116425.175850631</v>
       </c>
       <c r="G24">
-        <v>116.1190995822598</v>
+        <v>4841372.619528175</v>
       </c>
       <c r="H24">
-        <v>1227.986165425817</v>
+        <v>3986027.025810455</v>
       </c>
       <c r="I24">
-        <v>-605.1721237812261</v>
+        <v>1115711.652493615</v>
       </c>
       <c r="J24">
-        <v>1239.350599942647</v>
+        <v>4842160.445932406</v>
       </c>
       <c r="K24">
-        <v>2796.222264086713</v>
+        <v>3987555.321201848</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,22 +1285,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>74.16854401561281</v>
+        <v>1116423.163348136</v>
       </c>
       <c r="G25">
-        <v>129.101863054935</v>
+        <v>4841389.132348627</v>
       </c>
       <c r="H25">
-        <v>1242.297381718446</v>
+        <v>3986046.311981586</v>
       </c>
       <c r="I25">
-        <v>-558.0034940047842</v>
+        <v>1115762.225289727</v>
       </c>
       <c r="J25">
-        <v>1174.492429254939</v>
+        <v>4842111.794268752</v>
       </c>
       <c r="K25">
-        <v>2770.338801782245</v>
+        <v>3987525.846652061</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,22 +1320,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>71.95798063215102</v>
+        <v>1116421.330588837</v>
       </c>
       <c r="G26">
-        <v>142.0846265276102</v>
+        <v>4841405.645169078</v>
       </c>
       <c r="H26">
-        <v>1255.743880809553</v>
+        <v>3986064.432837093</v>
       </c>
       <c r="I26">
-        <v>-509.6733801144413</v>
+        <v>1115814.043394417</v>
       </c>
       <c r="J26">
-        <v>1109.634258567231</v>
+        <v>4842063.142605097</v>
       </c>
       <c r="K26">
-        <v>2731.15234171183</v>
+        <v>3987481.223438414</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,22 +1355,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>69.93378300842352</v>
+        <v>1116419.652343804</v>
       </c>
       <c r="G27">
-        <v>155.0673900002854</v>
+        <v>4841422.15798953</v>
       </c>
       <c r="H27">
-        <v>1268.424231659376</v>
+        <v>3986081.521211099</v>
       </c>
       <c r="I27">
-        <v>-460.1531816324384</v>
+        <v>1115867.137472264</v>
       </c>
       <c r="J27">
-        <v>1044.776087879523</v>
+        <v>4842014.490941443</v>
       </c>
       <c r="K27">
-        <v>2678.662883875465</v>
+        <v>3987421.451560908</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,22 +1390,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>68.07117851002168</v>
+        <v>1116418.108074257</v>
       </c>
       <c r="G28">
-        <v>168.0501534729606</v>
+        <v>4841438.670809982</v>
       </c>
       <c r="H28">
-        <v>1280.42105436844</v>
+        <v>3986097.688444621</v>
       </c>
       <c r="I28">
-        <v>-409.4135938205636</v>
+        <v>1115921.538942932</v>
       </c>
       <c r="J28">
-        <v>979.9179171918158</v>
+        <v>4841965.839277788</v>
       </c>
       <c r="K28">
-        <v>2612.870428273153</v>
+        <v>3987346.531019543</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,22 +1425,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>66.34976853136062</v>
+        <v>1116416.680867885</v>
       </c>
       <c r="G29">
-        <v>181.0329169456358</v>
+        <v>4841455.183630434</v>
       </c>
       <c r="H29">
-        <v>1291.80428559426</v>
+        <v>3986113.028786137</v>
       </c>
       <c r="I29">
-        <v>-357.4245903383855</v>
+        <v>1115977.279999766</v>
       </c>
       <c r="J29">
-        <v>915.059746504108</v>
+        <v>4841917.187614134</v>
       </c>
       <c r="K29">
-        <v>2533.774974904891</v>
+        <v>3987256.461814318</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,22 +1460,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>64.75258386608461</v>
+        <v>1116415.356655665</v>
       </c>
       <c r="G30">
-        <v>194.015680418311</v>
+        <v>4841471.696450885</v>
       </c>
       <c r="H30">
-        <v>1302.633648791532</v>
+        <v>3986127.622720544</v>
       </c>
       <c r="I30">
-        <v>-304.1554054744653</v>
+        <v>1116034.393628845</v>
       </c>
       <c r="J30">
-        <v>850.2015758164001</v>
+        <v>4841868.535950479</v>
       </c>
       <c r="K30">
-        <v>2441.376523770681</v>
+        <v>3987151.243945234</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,22 +1495,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>63.26537784735932</v>
+        <v>1116414.123625804</v>
       </c>
       <c r="G31">
-        <v>206.9984438909862</v>
+        <v>4841488.209271338</v>
       </c>
       <c r="H31">
-        <v>1312.960550888605</v>
+        <v>3986141.539525169</v>
       </c>
       <c r="I31">
-        <v>-249.5745159400226</v>
+        <v>1116092.913628495</v>
       </c>
       <c r="J31">
-        <v>785.3434051286926</v>
+        <v>4841819.884286824</v>
       </c>
       <c r="K31">
-        <v>2335.675074870523</v>
+        <v>3987030.877412289</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,22 +1530,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>61.87608966354649</v>
+        <v>1116412.971778788</v>
       </c>
       <c r="G32">
-        <v>219.9812073636614</v>
+        <v>4841504.722091789</v>
       </c>
       <c r="H32">
-        <v>1322.829558143744</v>
+        <v>3986154.839258673</v>
       </c>
       <c r="I32">
-        <v>-193.6496222142919</v>
+        <v>1116152.8746293</v>
       </c>
       <c r="J32">
-        <v>720.4852344409848</v>
+        <v>4841771.232623169</v>
       </c>
       <c r="K32">
-        <v>2216.670628204415</v>
+        <v>3986895.362215486</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,22 +1565,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>60.5744314863532</v>
+        <v>1116411.892585064</v>
       </c>
       <c r="G33">
-        <v>232.9639708363366</v>
+        <v>4841521.234912241</v>
       </c>
       <c r="H33">
-        <v>1332.279558478787</v>
+        <v>3986167.574327441</v>
       </c>
       <c r="I33">
-        <v>-136.3476294305236</v>
+        <v>1116214.312114587</v>
       </c>
       <c r="J33">
-        <v>655.6270637532772</v>
+        <v>4841722.580959516</v>
       </c>
       <c r="K33">
-        <v>2084.36318377236</v>
+        <v>3986744.698354823</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,22 +1600,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>59.35156702963567</v>
+        <v>1116410.878718545</v>
       </c>
       <c r="G34">
-        <v>245.9467343090118</v>
+        <v>4841537.747732693</v>
       </c>
       <c r="H34">
-        <v>1341.344686966999</v>
+        <v>3986179.790732795</v>
       </c>
       <c r="I34">
-        <v>-77.63462779132163</v>
+        <v>1116277.262441427</v>
       </c>
       <c r="J34">
-        <v>590.7688930655693</v>
+        <v>4841673.929295861</v>
       </c>
       <c r="K34">
-        <v>1938.752741574355</v>
+        <v>3986578.8858303</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,22 +1635,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>58.19985854676716</v>
+        <v>1116409.923846838</v>
       </c>
       <c r="G35">
-        <v>258.9294977816871</v>
+        <v>4841554.260553144</v>
       </c>
       <c r="H35">
-        <v>1350.055070128225</v>
+        <v>3986191.529074025</v>
       </c>
       <c r="I35">
-        <v>-17.47587250172565</v>
+        <v>1116341.762862152</v>
       </c>
       <c r="J35">
-        <v>525.9107223778615</v>
+        <v>4841625.277632206</v>
       </c>
       <c r="K35">
-        <v>1779.839301610402</v>
+        <v>3986397.924641918</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,22 +1670,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>57.11266569458501</v>
+        <v>1116409.022464491</v>
       </c>
       <c r="G36">
-        <v>271.9122612543623</v>
+        <v>4841570.773373596</v>
       </c>
       <c r="H36">
-        <v>1358.437430000978</v>
+        <v>3986202.825362452</v>
       </c>
       <c r="I36">
-        <v>44.16423679183676</v>
+        <v>1116407.851546399</v>
       </c>
       <c r="J36">
-        <v>461.0525516901539</v>
+        <v>4841576.625968551</v>
       </c>
       <c r="K36">
-        <v>1607.622863880501</v>
+        <v>3986201.814789677</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,22 +1705,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>56.08418415405239</v>
+        <v>1116408.169759194</v>
       </c>
       <c r="G37">
-        <v>284.8950247270375</v>
+        <v>4841587.286194049</v>
       </c>
       <c r="H37">
-        <v>1366.515578544856</v>
+        <v>3986213.711687699</v>
       </c>
       <c r="I37">
-        <v>107.3221770688923</v>
+        <v>1116475.567603694</v>
       </c>
       <c r="J37">
-        <v>396.1943810024461</v>
+        <v>4841527.974304897</v>
       </c>
       <c r="K37">
-        <v>1422.103428384651</v>
+        <v>3985990.556273576</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,22 +1740,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>55.10931504590375</v>
+        <v>1116407.361503508</v>
       </c>
       <c r="G38">
-        <v>297.8777881997127</v>
+        <v>4841603.799014499</v>
       </c>
       <c r="H38">
-        <v>1374.310825431204</v>
+        <v>3986224.216767238</v>
       </c>
       <c r="I38">
-        <v>172.0353235210313</v>
+        <v>1116544.951106603</v>
       </c>
       <c r="J38">
-        <v>331.3362103147385</v>
+        <v>4841479.322641242</v>
       </c>
       <c r="K38">
-        <v>1223.280995122853</v>
+        <v>3985764.149093616</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,22 +1775,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>54.18355843154575</v>
+        <v>1116406.593966573</v>
       </c>
       <c r="G39">
-        <v>310.8605516723879</v>
+        <v>4841620.311834952</v>
       </c>
       <c r="H39">
-        <v>1381.842316815017</v>
+        <v>3986234.366402931</v>
       </c>
       <c r="I39">
-        <v>238.3419716695505</v>
+        <v>1116616.043114439</v>
       </c>
       <c r="J39">
-        <v>266.4780396270306</v>
+        <v>4841430.670977588</v>
       </c>
       <c r="K39">
-        <v>1011.155564095105</v>
+        <v>3985522.593249795</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,22 +1810,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>53.30292582111365</v>
+        <v>1116405.863841566</v>
       </c>
       <c r="G40">
-        <v>323.8433151450631</v>
+        <v>4841636.824655404</v>
       </c>
       <c r="H40">
-        <v>1389.127318648073</v>
+        <v>3986244.183862829</v>
       </c>
       <c r="I40">
-        <v>306.2813600277298</v>
+        <v>1116688.885697565</v>
       </c>
       <c r="J40">
-        <v>201.6198689393228</v>
+        <v>4841382.019313933</v>
       </c>
       <c r="K40">
-        <v>785.7271353014096</v>
+        <v>3985265.888742117</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,22 +1845,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>52.46386780679033</v>
+        <v>1116405.168185703</v>
       </c>
       <c r="G41">
-        <v>336.8260786177383</v>
+        <v>4841653.337475855</v>
       </c>
       <c r="H41">
-        <v>1396.181455083464</v>
+        <v>3986253.690202449</v>
       </c>
       <c r="I41">
-        <v>375.893693321137</v>
+        <v>1116763.521962286</v>
       </c>
       <c r="J41">
-        <v>136.7616982516152</v>
+        <v>4841333.367650279</v>
       </c>
       <c r="K41">
-        <v>546.9957087417656</v>
+        <v>3984994.035570578</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,22 +1880,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>51.66321382616892</v>
+        <v>1116404.504370298</v>
       </c>
       <c r="G42">
-        <v>349.8088420904135</v>
+        <v>4841669.850296307</v>
       </c>
       <c r="H42">
-        <v>1403.018910251959</v>
+        <v>3986262.904536702</v>
       </c>
       <c r="I42">
-        <v>447.2201662797236</v>
+        <v>1116839.996076362</v>
       </c>
       <c r="J42">
-        <v>71.90352756390737</v>
+        <v>4841284.715986624</v>
       </c>
       <c r="K42">
-        <v>294.9612844161724</v>
+        <v>3984707.033735179</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,22 +1915,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>50.89812172441699</v>
+        <v>1116403.870038944</v>
       </c>
       <c r="G43">
-        <v>362.7916055630888</v>
+        <v>4841686.36311676</v>
       </c>
       <c r="H43">
-        <v>1409.652599962362</v>
+        <v>3986271.844271269</v>
       </c>
       <c r="I43">
-        <v>520.3029880157628</v>
+        <v>1116918.353295143</v>
       </c>
       <c r="J43">
-        <v>7.045356876199521</v>
+        <v>4841236.064322969</v>
       </c>
       <c r="K43">
-        <v>29.62386232463073</v>
+        <v>3984404.883235922</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,22 +1950,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>50.16603528599738</v>
+        <v>1116403.263072305</v>
       </c>
       <c r="G44">
-        <v>375.774369035764</v>
+        <v>4841702.87593721</v>
       </c>
       <c r="H44">
-        <v>1416.094318550134</v>
+        <v>3986280.525300506</v>
       </c>
       <c r="I44">
-        <v>595.1854070020883</v>
+        <v>1116998.639988348</v>
       </c>
       <c r="J44">
-        <v>-57.81281381150803</v>
+        <v>4841187.412659314</v>
       </c>
       <c r="K44">
-        <v>-249.0165575328587</v>
+        <v>3984087.584072804</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,22 +1985,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>49.46464828963324</v>
+        <v>1116402.681558312</v>
       </c>
       <c r="G45">
-        <v>388.7571325084392</v>
+        <v>4841719.388757663</v>
       </c>
       <c r="H45">
-        <v>1422.354865069517</v>
+        <v>3986288.962177503</v>
       </c>
       <c r="I45">
-        <v>671.9117366653901</v>
+        <v>1117080.903667511</v>
       </c>
       <c r="J45">
-        <v>-122.6709844992159</v>
+        <v>4841138.760995661</v>
       </c>
       <c r="K45">
-        <v>-540.9599751562974</v>
+        <v>3983755.136245827</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,22 +2020,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>48.79187393476835</v>
+        <v>1116402.123766817</v>
       </c>
       <c r="G46">
-        <v>401.7398959811144</v>
+        <v>4841735.901578114</v>
       </c>
       <c r="H46">
-        <v>1428.444152220755</v>
+        <v>3986297.168260876</v>
       </c>
       <c r="I46">
-        <v>750.5273816097223</v>
+        <v>1117165.193014093</v>
       </c>
       <c r="J46">
-        <v>-187.5291551869237</v>
+        <v>4841090.109332005</v>
       </c>
       <c r="K46">
-        <v>-846.2063905456856</v>
+        <v>3983407.539754991</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,22 +2055,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>48.14581871616506</v>
+        <v>1116401.58812793</v>
       </c>
       <c r="G47">
-        <v>414.7226594537896</v>
+        <v>4841752.414398566</v>
       </c>
       <c r="H47">
-        <v>1434.371300771585</v>
+        <v>3986305.15584201</v>
       </c>
       <c r="I47">
-        <v>831.0788644857413</v>
+        <v>1117251.557908289</v>
       </c>
       <c r="J47">
-        <v>-252.3873258746316</v>
+        <v>4841041.457668351</v>
       </c>
       <c r="K47">
-        <v>-1164.755803701022</v>
+        <v>3983044.794600295</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,22 +2090,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>47.52476000166903</v>
+        <v>1116401.073213433</v>
       </c>
       <c r="G48">
-        <v>427.7054229264648</v>
+        <v>4841768.927219018</v>
       </c>
       <c r="H48">
-        <v>1440.14472173104</v>
+        <v>3986312.936255803</v>
       </c>
       <c r="I48">
-        <v>913.6138535215765</v>
+        <v>1117340.049458551</v>
       </c>
       <c r="J48">
-        <v>-317.2454965623389</v>
+        <v>4840992.806004697</v>
       </c>
       <c r="K48">
-        <v>-1496.608214622304</v>
+        <v>3982666.90078174</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,22 +2125,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>46.92712670849255</v>
+        <v>1116400.577720752</v>
       </c>
       <c r="G49">
-        <v>440.6881863991401</v>
+        <v>4841785.440039469</v>
       </c>
       <c r="H49">
-        <v>1445.772188133878</v>
+        <v>3986320.5199774</v>
       </c>
       <c r="I49">
-        <v>998.1811907316225</v>
+        <v>1117430.720031827</v>
       </c>
       <c r="J49">
-        <v>-382.1036672500467</v>
+        <v>4840944.154341042</v>
       </c>
       <c r="K49">
-        <v>-1841.763623309537</v>
+        <v>3982273.858299325</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,22 +2160,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>46.35148258447038</v>
+        <v>1116400.100459105</v>
       </c>
       <c r="G50">
-        <v>453.6709498718153</v>
+        <v>4841801.952859921</v>
       </c>
       <c r="H50">
-        <v>1451.260897973095</v>
+        <v>3986327.916707005</v>
       </c>
       <c r="I50">
-        <v>1084.830920819942</v>
+        <v>1117523.623284554</v>
       </c>
       <c r="J50">
-        <v>-446.9618379377546</v>
+        <v>4840895.502677387</v>
       </c>
       <c r="K50">
-        <v>-2200.222029762719</v>
+        <v>3981865.667153051</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,22 +2195,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>45.79651168926639</v>
+        <v>1116399.640337457</v>
       </c>
       <c r="G51">
-        <v>466.6537133444904</v>
+        <v>4841818.465680374</v>
       </c>
       <c r="H51">
-        <v>1456.617529558921</v>
+        <v>3986335.135444486</v>
       </c>
       <c r="I51">
-        <v>1173.614320795396</v>
+        <v>1117618.81419441</v>
       </c>
       <c r="J51">
-        <v>-511.8200086254624</v>
+        <v>4840846.851013733</v>
       </c>
       <c r="K51">
-        <v>-2571.98343398185</v>
+        <v>3981442.327342917</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,22 +2230,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>45.26100574146379</v>
+        <v>1116399.19635403</v>
       </c>
       <c r="G52">
-        <v>479.6364768171657</v>
+        <v>4841834.978500824</v>
       </c>
       <c r="H52">
-        <v>1461.848290372349</v>
+        <v>3986342.184555206</v>
       </c>
       <c r="I52">
-        <v>1264.583930316016</v>
+        <v>1117716.349092848</v>
       </c>
       <c r="J52">
-        <v>-576.6781793131703</v>
+        <v>4840798.199350079</v>
       </c>
       <c r="K52">
-        <v>-2957.047835966929</v>
+        <v>3981003.838868923</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,22 +2265,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>44.74385305465648</v>
+        <v>1116398.767587136</v>
       </c>
       <c r="G53">
-        <v>492.6192402898409</v>
+        <v>4841851.491321277</v>
       </c>
       <c r="H53">
-        <v>1466.958960309548</v>
+        <v>3986349.071828306</v>
       </c>
       <c r="I53">
-        <v>1357.793582780573</v>
+        <v>1117816.285698429</v>
       </c>
       <c r="J53">
-        <v>-641.5363500008775</v>
+        <v>4840749.547686424</v>
       </c>
       <c r="K53">
-        <v>-3355.415235717953</v>
+        <v>3980550.201731071</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,22 +2300,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>44.24402883200518</v>
+        <v>1116398.353187124</v>
       </c>
       <c r="G54">
-        <v>505.6020037625161</v>
+        <v>4841868.004141729</v>
       </c>
       <c r="H54">
-        <v>1471.954930072669</v>
+        <v>3986355.804528438</v>
       </c>
       <c r="I54">
-        <v>1453.298437185764</v>
+        <v>1117918.683150983</v>
       </c>
       <c r="J54">
-        <v>-706.3945206885854</v>
+        <v>4840700.896022769</v>
       </c>
       <c r="K54">
-        <v>-3767.085633234929</v>
+        <v>3980081.415929359</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>115.4722114130713</v>
+        <v>1116579.290097163</v>
       </c>
       <c r="G55">
-        <v>-84.34576503954462</v>
+        <v>4841124.454097802</v>
       </c>
       <c r="H55">
-        <v>687.0129291327531</v>
+        <v>3985220.874819749</v>
       </c>
       <c r="I55">
-        <v>-1618.101688073909</v>
+        <v>1114860.926728781</v>
       </c>
       <c r="J55">
-        <v>1677.98005337273</v>
+        <v>4843224.02081063</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984367.199442577</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>115.4722114130713</v>
+        <v>1116579.290097163</v>
       </c>
       <c r="G56">
-        <v>-84.34576503954462</v>
+        <v>4841124.454097802</v>
       </c>
       <c r="H56">
-        <v>687.0129291327531</v>
+        <v>3985220.874819749</v>
       </c>
       <c r="I56">
-        <v>-1586.156052171583</v>
+        <v>1114890.540713804</v>
       </c>
       <c r="J56">
-        <v>1637.161856060867</v>
+        <v>4843175.3692149</v>
       </c>
       <c r="K56">
-        <v>358.7693536393959</v>
+        <v>3984670.99519653</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>115.4722114130713</v>
+        <v>1116579.290097163</v>
       </c>
       <c r="G57">
-        <v>-84.34576503954462</v>
+        <v>4841124.454097802</v>
       </c>
       <c r="H57">
-        <v>687.0129291327531</v>
+        <v>3985220.874819749</v>
       </c>
       <c r="I57">
-        <v>-1553.423784374609</v>
+        <v>1114920.883915964</v>
       </c>
       <c r="J57">
-        <v>1596.343658749004</v>
+        <v>4843126.717619168</v>
       </c>
       <c r="K57">
-        <v>699.6488227666531</v>
+        <v>3984959.642301643</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>115.4722114130713</v>
+        <v>1116579.290097163</v>
       </c>
       <c r="G58">
-        <v>-84.34576503954462</v>
+        <v>4841124.454097802</v>
       </c>
       <c r="H58">
-        <v>687.0129291327531</v>
+        <v>3985220.874819749</v>
       </c>
       <c r="I58">
-        <v>-1519.885514596268</v>
+        <v>1114951.974291562</v>
       </c>
       <c r="J58">
-        <v>1555.52546143714</v>
+        <v>4843078.066023437</v>
       </c>
       <c r="K58">
-        <v>1022.638407381774</v>
+        <v>3985233.140757913</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>115.4722114130713</v>
+        <v>1116579.290097163</v>
       </c>
       <c r="G59">
-        <v>-84.34576503954462</v>
+        <v>4841124.454097802</v>
       </c>
       <c r="H59">
-        <v>687.0129291327531</v>
+        <v>3985220.874819749</v>
       </c>
       <c r="I59">
-        <v>-1485.521395779278</v>
+        <v>1114983.830239057</v>
       </c>
       <c r="J59">
-        <v>1514.707264125277</v>
+        <v>4843029.414427706</v>
       </c>
       <c r="K59">
-        <v>1327.738107484757</v>
+        <v>3985491.490565341</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>115.4722114130713</v>
+        <v>1116579.290097163</v>
       </c>
       <c r="G60">
-        <v>-84.34576503954462</v>
+        <v>4841124.454097802</v>
       </c>
       <c r="H60">
-        <v>687.0129291327531</v>
+        <v>3985220.874819749</v>
       </c>
       <c r="I60">
-        <v>-1450.311092150829</v>
+        <v>1115016.470609951</v>
       </c>
       <c r="J60">
-        <v>1473.889066813413</v>
+        <v>4842980.762831975</v>
       </c>
       <c r="K60">
-        <v>1614.947923075604</v>
+        <v>3985734.691723928</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>115.4722114130713</v>
+        <v>1116579.290097163</v>
       </c>
       <c r="G61">
-        <v>-84.34576503954462</v>
+        <v>4841124.454097802</v>
       </c>
       <c r="H61">
-        <v>687.0129291327531</v>
+        <v>3985220.874819749</v>
       </c>
       <c r="I61">
-        <v>-1414.233767188415</v>
+        <v>1115049.914719951</v>
       </c>
       <c r="J61">
-        <v>1433.07086950155</v>
+        <v>4842932.111236244</v>
       </c>
       <c r="K61">
-        <v>1884.267854154314</v>
+        <v>3985962.744233672</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>115.4722114130713</v>
+        <v>1116579.290097163</v>
       </c>
       <c r="G62">
-        <v>-84.34576503954462</v>
+        <v>4841124.454097802</v>
       </c>
       <c r="H62">
-        <v>687.0129291327531</v>
+        <v>3985220.874819749</v>
       </c>
       <c r="I62">
-        <v>-1377.268071289332</v>
+        <v>1115084.18236039</v>
       </c>
       <c r="J62">
-        <v>1392.252672189686</v>
+        <v>4842883.459640512</v>
       </c>
       <c r="K62">
-        <v>2135.697900720886</v>
+        <v>3986175.648094575</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>115.4722114130713</v>
+        <v>1116579.290097163</v>
       </c>
       <c r="G63">
-        <v>-70.41790505442582</v>
+        <v>4841140.96691664</v>
       </c>
       <c r="H63">
-        <v>687.0129291327531</v>
+        <v>3985220.874819749</v>
       </c>
       <c r="I63">
-        <v>-1339.392129136551</v>
+        <v>1115119.293809951</v>
       </c>
       <c r="J63">
-        <v>1351.434474877823</v>
+        <v>4842834.808044782</v>
       </c>
       <c r="K63">
-        <v>2369.23806277532</v>
+        <v>3986373.403306636</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>89.61990663579978</v>
+        <v>1116530.609499114</v>
       </c>
       <c r="G64">
-        <v>-56.490045069307</v>
+        <v>4841157.479735478</v>
       </c>
       <c r="H64">
-        <v>846.3953057432054</v>
+        <v>3985420.12885386</v>
       </c>
       <c r="I64">
-        <v>-1300.583526753485</v>
+        <v>1115155.269846654</v>
       </c>
       <c r="J64">
-        <v>1310.61627756596</v>
+        <v>4842786.156449051</v>
       </c>
       <c r="K64">
-        <v>2584.888340317617</v>
+        <v>3986556.009869854</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>74.43297447075749</v>
+        <v>1116502.012089843</v>
       </c>
       <c r="G65">
-        <v>-42.56218508418821</v>
+        <v>4841173.992554316</v>
       </c>
       <c r="H65">
-        <v>941.3316003765814</v>
+        <v>3985538.814746814</v>
       </c>
       <c r="I65">
-        <v>-1260.819298239996</v>
+        <v>1115192.131760165</v>
       </c>
       <c r="J65">
-        <v>1269.798080254096</v>
+        <v>4842737.504853319</v>
       </c>
       <c r="K65">
-        <v>2782.648733347778</v>
+        <v>3986723.467784232</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>64.8458687184675</v>
+        <v>1116483.959307099</v>
       </c>
       <c r="G66">
-        <v>-28.6343250990694</v>
+        <v>4841190.505373155</v>
       </c>
       <c r="H66">
-        <v>1009.176153652199</v>
+        <v>3985623.631532836</v>
       </c>
       <c r="I66">
-        <v>-1220.075912181781</v>
+        <v>1115229.901364383</v>
       </c>
       <c r="J66">
-        <v>1228.979882942233</v>
+        <v>4842688.853257588</v>
       </c>
       <c r="K66">
-        <v>2962.519241865802</v>
+        <v>3986875.777049766</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>58.15986008316739</v>
+        <v>1116471.369369694</v>
       </c>
       <c r="G67">
-        <v>-14.70646511395059</v>
+        <v>4841207.018191992</v>
       </c>
       <c r="H67">
-        <v>1062.006670940176</v>
+        <v>3985689.67831867</v>
       </c>
       <c r="I67">
-        <v>-1178.329257725111</v>
+        <v>1115268.601010357</v>
       </c>
       <c r="J67">
-        <v>1188.161685630369</v>
+        <v>4842640.201661857</v>
       </c>
       <c r="K67">
-        <v>3124.499865871688</v>
+        <v>3987012.93766646</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>53.17189741811976</v>
+        <v>1116461.976899364</v>
       </c>
       <c r="G68">
-        <v>-0.778605128831792</v>
+        <v>4841223.53101083</v>
       </c>
       <c r="H68">
-        <v>1105.278962507482</v>
+        <v>3985743.775759325</v>
       </c>
       <c r="I68">
-        <v>-1135.554630308663</v>
+        <v>1115308.253599511</v>
       </c>
       <c r="J68">
-        <v>1147.343488318506</v>
+        <v>4842591.550066127</v>
       </c>
       <c r="K68">
-        <v>3268.590605365436</v>
+        <v>3987134.949634311</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>49.27200716238826</v>
+        <v>1116454.633299186</v>
       </c>
       <c r="G69">
-        <v>13.14925485628702</v>
+        <v>4841240.043829667</v>
       </c>
       <c r="H69">
-        <v>1141.927434740801</v>
+        <v>3985789.592342637</v>
       </c>
       <c r="I69">
-        <v>-1091.726717044021</v>
+        <v>1115348.882597193</v>
       </c>
       <c r="J69">
-        <v>1106.525291006642</v>
+        <v>4842542.898470394</v>
       </c>
       <c r="K69">
-        <v>3394.791460347048</v>
+        <v>3987241.812953321</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>46.11671198518088</v>
+        <v>1116448.691791936</v>
       </c>
       <c r="G70">
-        <v>27.07711484140582</v>
+        <v>4841256.556648506</v>
       </c>
       <c r="H70">
-        <v>1173.713309721688</v>
+        <v>3985829.329884217</v>
       </c>
       <c r="I70">
-        <v>-1046.819581736178</v>
+        <v>1115390.512046565</v>
       </c>
       <c r="J70">
-        <v>1065.707093694779</v>
+        <v>4842494.246874664</v>
       </c>
       <c r="K70">
-        <v>3503.102430816522</v>
+        <v>3987333.527623488</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>43.49669269344287</v>
+        <v>1116443.758223841</v>
       </c>
       <c r="G71">
-        <v>41.00497482652462</v>
+        <v>4841273.069467344</v>
       </c>
       <c r="H71">
-        <v>1201.777091999923</v>
+        <v>3985864.414201255</v>
       </c>
       <c r="I71">
-        <v>-1000.806649535186</v>
+        <v>1115433.166582828</v>
       </c>
       <c r="J71">
-        <v>1024.888896382915</v>
+        <v>4842445.595278933</v>
       </c>
       <c r="K71">
-        <v>3593.52351677386</v>
+        <v>3987410.093644814</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>41.27642347565282</v>
+        <v>1116439.577396086</v>
       </c>
       <c r="G72">
-        <v>54.93283481164344</v>
+        <v>4841289.582286182</v>
       </c>
       <c r="H72">
-        <v>1226.899824382384</v>
+        <v>3985895.821724983</v>
       </c>
       <c r="I72">
-        <v>-953.6606912098665</v>
+        <v>1115476.871447807</v>
       </c>
       <c r="J72">
-        <v>984.0706990710518</v>
+        <v>4842396.943683202</v>
       </c>
       <c r="K72">
-        <v>3666.05471821906</v>
+        <v>3987471.511017298</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>39.36387815480486</v>
+        <v>1116435.976020858</v>
       </c>
       <c r="G73">
-        <v>68.86069479676223</v>
+        <v>4841306.09510502</v>
       </c>
       <c r="H73">
-        <v>1249.639887244141</v>
+        <v>3985924.250522178</v>
       </c>
       <c r="I73">
-        <v>-905.3538070342718</v>
+        <v>1115521.652504877</v>
       </c>
       <c r="J73">
-        <v>943.2525017591885</v>
+        <v>4842348.29208747</v>
       </c>
       <c r="K73">
-        <v>3720.696035152122</v>
+        <v>3987517.779740939</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>37.69412726517076</v>
+        <v>1116432.831834195</v>
       </c>
       <c r="G74">
-        <v>82.78855478188103</v>
+        <v>4841322.607923858</v>
       </c>
       <c r="H74">
-        <v>1270.410338159107</v>
+        <v>3985950.216982355</v>
       </c>
       <c r="I74">
-        <v>-855.8574102773719</v>
+        <v>1115567.53625428</v>
       </c>
       <c r="J74">
-        <v>902.434304447325</v>
+        <v>4842299.64049174</v>
       </c>
       <c r="K74">
-        <v>3757.447467573048</v>
+        <v>3987548.89981574</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>36.21989504547554</v>
+        <v>1116430.055814543</v>
       </c>
       <c r="G75">
-        <v>96.71641476699986</v>
+        <v>4841339.120742695</v>
       </c>
       <c r="H75">
-        <v>1289.525339254166</v>
+        <v>3985974.113859545</v>
       </c>
       <c r="I75">
-        <v>-805.1422102861831</v>
+        <v>1115614.5498488</v>
       </c>
       <c r="J75">
-        <v>861.6161071354616</v>
+        <v>4842250.988896009</v>
       </c>
       <c r="K75">
-        <v>3776.309015481836</v>
+        <v>3987564.871241698</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>34.90584269160596</v>
+        <v>1116427.581417965</v>
       </c>
       <c r="G76">
-        <v>110.6442747521186</v>
+        <v>4841355.633561534</v>
       </c>
       <c r="H76">
-        <v>1307.229407523385</v>
+        <v>3985996.246839978</v>
       </c>
       <c r="I76">
-        <v>-753.1781951523396</v>
+        <v>1115662.721109833</v>
       </c>
       <c r="J76">
-        <v>820.797909823598</v>
+        <v>4842202.337300277</v>
       </c>
       <c r="K76">
-        <v>3777.280678878487</v>
+        <v>3987565.694018814</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>33.72495912468086</v>
+        <v>1116425.357781862</v>
       </c>
       <c r="G77">
-        <v>124.5721347372375</v>
+        <v>4841372.146380372</v>
       </c>
       <c r="H77">
-        <v>1323.71659157092</v>
+        <v>3986016.85851614</v>
       </c>
       <c r="I77">
-        <v>-699.9346139518429</v>
+        <v>1115712.078543853</v>
       </c>
       <c r="J77">
-        <v>779.9797125117345</v>
+        <v>4842153.685704546</v>
       </c>
       <c r="K77">
-        <v>3760.362457763001</v>
+        <v>3987551.368147088</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>32.65619993882268</v>
+        <v>1116423.345279039</v>
       </c>
       <c r="G78">
-        <v>138.4999947223563</v>
+        <v>4841388.65919921</v>
       </c>
       <c r="H78">
-        <v>1339.143470949112</v>
+        <v>3986036.144638076</v>
       </c>
       <c r="I78">
-        <v>-645.37995854748</v>
+        <v>1115762.651359277</v>
       </c>
       <c r="J78">
-        <v>739.1615151998712</v>
+        <v>4842105.034108815</v>
       </c>
       <c r="K78">
-        <v>3725.554352135378</v>
+        <v>3987521.89362652</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>31.68289513978858</v>
+        <v>1116421.512519442</v>
       </c>
       <c r="G79">
-        <v>152.4278547074751</v>
+        <v>4841405.172018048</v>
       </c>
       <c r="H79">
-        <v>1353.638222149561</v>
+        <v>3986054.265447362</v>
       </c>
       <c r="I79">
-        <v>-589.4819449431475</v>
+        <v>1115814.469483755</v>
       </c>
       <c r="J79">
-        <v>698.3433178880077</v>
+        <v>4842056.382513084</v>
       </c>
       <c r="K79">
-        <v>3672.856361995618</v>
+        <v>3987477.270457111</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>30.79164665711349</v>
+        <v>1116419.834274136</v>
       </c>
       <c r="G80">
-        <v>166.3557146925939</v>
+        <v>4841421.684836886</v>
       </c>
       <c r="H80">
-        <v>1367.307098297715</v>
+        <v>3986071.35377778</v>
       </c>
       <c r="I80">
-        <v>-532.2074941790381</v>
+        <v>1115867.563581876</v>
       </c>
       <c r="J80">
-        <v>657.5251205761442</v>
+        <v>4842007.730917352</v>
       </c>
       <c r="K80">
-        <v>3602.26848734372</v>
+        <v>3987417.498638859</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>29.97154717000536</v>
+        <v>1116418.290004337</v>
       </c>
       <c r="G81">
-        <v>180.2835746777127</v>
+        <v>4841438.197655723</v>
       </c>
       <c r="H81">
-        <v>1380.23916033004</v>
+        <v>3986087.520970064</v>
       </c>
       <c r="I81">
-        <v>-473.5227127563912</v>
+        <v>1115921.965073318</v>
       </c>
       <c r="J81">
-        <v>616.7069232642808</v>
+        <v>4841959.079321622</v>
       </c>
       <c r="K81">
-        <v>3513.790728179686</v>
+        <v>3987342.578171766</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>29.21361523017914</v>
+        <v>1116416.862797732</v>
       </c>
       <c r="G82">
-        <v>194.2114346628315</v>
+        <v>4841454.710474562</v>
       </c>
       <c r="H82">
-        <v>1392.509796973638</v>
+        <v>3986102.861272451</v>
       </c>
       <c r="I82">
-        <v>-413.3928725802199</v>
+        <v>1115977.706151438</v>
       </c>
       <c r="J82">
-        <v>575.8887259524173</v>
+        <v>4841910.427725891</v>
       </c>
       <c r="K82">
-        <v>3407.423084503514</v>
+        <v>3987252.509055831</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>28.51037934412081</v>
+        <v>1116415.538585296</v>
       </c>
       <c r="G83">
-        <v>208.1392946479503</v>
+        <v>4841471.223293399</v>
       </c>
       <c r="H83">
-        <v>1404.183387559576</v>
+        <v>3986117.455169632</v>
       </c>
       <c r="I83">
-        <v>-351.7823904081492</v>
+        <v>1116034.819802326</v>
       </c>
       <c r="J83">
-        <v>535.0705286405538</v>
+        <v>4841861.776130159</v>
       </c>
       <c r="K83">
-        <v>3283.165556315204</v>
+        <v>3987147.291291055</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>27.85556674475942</v>
+        <v>1116414.305555234</v>
       </c>
       <c r="G84">
-        <v>222.0671546330691</v>
+        <v>4841487.736112238</v>
       </c>
       <c r="H84">
-        <v>1415.315346559035</v>
+        <v>3986131.371938759</v>
       </c>
       <c r="I84">
-        <v>-288.6548067931957</v>
+        <v>1116093.339824323</v>
       </c>
       <c r="J84">
-        <v>494.2523313286904</v>
+        <v>4841813.124534428</v>
       </c>
       <c r="K84">
-        <v>3141.018143614758</v>
+        <v>3987026.924877436</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>27.24386709087805</v>
+        <v>1116413.15370803</v>
       </c>
       <c r="G85">
-        <v>235.9950146181879</v>
+        <v>4841504.248931076</v>
       </c>
       <c r="H85">
-        <v>1425.95371449328</v>
+        <v>3986144.671638339</v>
       </c>
       <c r="I85">
-        <v>-223.9727645080361</v>
+        <v>1116153.300848025</v>
       </c>
       <c r="J85">
-        <v>453.4341340168269</v>
+        <v>4841764.472938697</v>
       </c>
       <c r="K85">
-        <v>2980.980846402174</v>
+        <v>3986891.409814975</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>26.67075068080696</v>
+        <v>1116412.074514131</v>
       </c>
       <c r="G86">
-        <v>249.9228746033067</v>
+        <v>4841520.761749914</v>
       </c>
       <c r="H86">
-        <v>1436.140410879643</v>
+        <v>3986157.406674624</v>
       </c>
       <c r="I86">
-        <v>-157.6979864379918</v>
+        <v>1116214.738356772</v>
       </c>
       <c r="J86">
-        <v>412.6159367049636</v>
+        <v>4841715.821342967</v>
       </c>
       <c r="K86">
-        <v>2803.053664677454</v>
+        <v>3986740.746103672</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>26.13232692277496</v>
+        <v>1116411.060647446</v>
       </c>
       <c r="G87">
-        <v>263.8507345884255</v>
+        <v>4841537.274568751</v>
       </c>
       <c r="H87">
-        <v>1445.912231867876</v>
+        <v>3986169.623048817</v>
       </c>
       <c r="I87">
-        <v>-89.79125292965031</v>
+        <v>1116277.688707651</v>
       </c>
       <c r="J87">
-        <v>371.7977393931001</v>
+        <v>4841667.169747235</v>
       </c>
       <c r="K87">
-        <v>2607.236598440596</v>
+        <v>3986574.933743528</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>25.62523293856685</v>
+        <v>1116410.105775584</v>
       </c>
       <c r="G88">
-        <v>277.7785945735444</v>
+        <v>4841553.787387589</v>
       </c>
       <c r="H88">
-        <v>1455.301652558505</v>
+        <v>3986181.361360106</v>
       </c>
       <c r="I88">
-        <v>-20.21237858171556</v>
+        <v>1116342.189153007</v>
       </c>
       <c r="J88">
-        <v>330.9795420812366</v>
+        <v>4841618.518151504</v>
       </c>
       <c r="K88">
-        <v>2393.5296476916</v>
+        <v>3986393.972734541</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>25.1465450038887</v>
+        <v>1116409.20439309</v>
       </c>
       <c r="G89">
-        <v>291.7064545586632</v>
+        <v>4841570.300206427</v>
       </c>
       <c r="H89">
-        <v>1464.337478166714</v>
+        <v>3986192.657619719</v>
       </c>
       <c r="I89">
-        <v>51.07981153564663</v>
+        <v>1116408.27786249</v>
       </c>
       <c r="J89">
-        <v>290.1613447693733</v>
+        <v>4841569.866555773</v>
       </c>
       <c r="K89">
-        <v>2161.932812430468</v>
+        <v>3986197.863076713</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>24.6937074935022</v>
+        <v>1116408.351687654</v>
       </c>
       <c r="G90">
-        <v>305.6343145437819</v>
+        <v>4841586.813025266</v>
       </c>
       <c r="H90">
-        <v>1473.045376967022</v>
+        <v>3986203.543917197</v>
       </c>
       <c r="I90">
-        <v>124.1275062470365</v>
+        <v>1116475.993945644</v>
       </c>
       <c r="J90">
-        <v>249.3431474575097</v>
+        <v>4841521.214960042</v>
       </c>
       <c r="K90">
-        <v>1912.446092657198</v>
+        <v>3985986.604770042</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>24.26447538530304</v>
+        <v>1116407.543431837</v>
       </c>
       <c r="G91">
-        <v>319.5621745289008</v>
+        <v>4841603.325844103</v>
       </c>
       <c r="H91">
-        <v>1481.448319874178</v>
+        <v>3986214.048969941</v>
       </c>
       <c r="I91">
-        <v>198.9739332380481</v>
+        <v>1116545.377475048</v>
       </c>
       <c r="J91">
-        <v>208.5249501456464</v>
+        <v>4841472.563364311</v>
       </c>
       <c r="K91">
-        <v>1645.069488371792</v>
+        <v>3985760.19781453</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>23.85686736906911</v>
+        <v>1116406.775894777</v>
       </c>
       <c r="G92">
-        <v>333.4900345140196</v>
+        <v>4841619.838662942</v>
       </c>
       <c r="H92">
-        <v>1489.566945624794</v>
+        <v>3986224.198579744</v>
       </c>
       <c r="I92">
-        <v>275.6633846362624</v>
+        <v>1116616.469510031</v>
       </c>
       <c r="J92">
-        <v>167.7067528337829</v>
+        <v>4841423.911768579</v>
       </c>
       <c r="K92">
-        <v>1359.802999574247</v>
+        <v>3985518.642210176</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>23.46912732400548</v>
+        <v>1116406.045769651</v>
       </c>
       <c r="G93">
-        <v>347.4178944991384</v>
+        <v>4841636.35148178</v>
       </c>
       <c r="H93">
-        <v>1497.419866176791</v>
+        <v>3986234.016014601</v>
       </c>
       <c r="I93">
-        <v>354.2412432221568</v>
+        <v>1116689.312120973</v>
       </c>
       <c r="J93">
-        <v>126.8885555219194</v>
+        <v>4841375.260172849</v>
       </c>
       <c r="K93">
-        <v>1056.646626264566</v>
+        <v>3985261.93795698</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>23.09969245589959</v>
+        <v>1116405.350113675</v>
       </c>
       <c r="G94">
-        <v>361.3457544842572</v>
+        <v>4841652.864300617</v>
       </c>
       <c r="H94">
-        <v>1505.023923699292</v>
+        <v>3986243.522329974</v>
       </c>
       <c r="I94">
-        <v>434.7540092854232</v>
+        <v>1116763.948414196</v>
       </c>
       <c r="J94">
-        <v>86.07035821005603</v>
+        <v>4841326.608577117</v>
       </c>
       <c r="K94">
-        <v>735.6003684427479</v>
+        <v>3984990.085054942</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>22.74716677510042</v>
+        <v>1116404.686298161</v>
       </c>
       <c r="G95">
-        <v>375.2736144693759</v>
+        <v>4841669.377119455</v>
       </c>
       <c r="H95">
-        <v>1512.39440807891</v>
+        <v>3986252.736640722</v>
       </c>
       <c r="I95">
-        <v>517.2493281426127</v>
+        <v>1116840.422557474</v>
       </c>
       <c r="J95">
-        <v>45.25216089819251</v>
+        <v>4841277.956981387</v>
       </c>
       <c r="K95">
-        <v>396.6642261087919</v>
+        <v>3984703.083504063</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>22.41029888888216</v>
+        <v>1116404.051966704</v>
       </c>
       <c r="G96">
-        <v>389.2014744544948</v>
+        <v>4841685.889938294</v>
       </c>
       <c r="H96">
-        <v>1519.545242005405</v>
+        <v>3986261.676352486</v>
       </c>
       <c r="I96">
-        <v>601.7760183323583</v>
+        <v>1116918.779806176</v>
       </c>
       <c r="J96">
-        <v>4.433963586328983</v>
+        <v>4841229.305385655</v>
       </c>
       <c r="K96">
-        <v>39.83819926269878</v>
+        <v>3984400.933304342</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>22.08796330278115</v>
+        <v>1116403.444999966</v>
       </c>
       <c r="G97">
-        <v>403.1293344396136</v>
+        <v>4841702.402757131</v>
       </c>
       <c r="H97">
-        <v>1526.489139268212</v>
+        <v>3986270.35735958</v>
       </c>
       <c r="I97">
-        <v>688.3841005048964</v>
+        <v>1116999.06653004</v>
       </c>
       <c r="J97">
-        <v>-36.38423372553434</v>
+        <v>4841180.653789924</v>
       </c>
       <c r="K97">
-        <v>-334.8777120955304</v>
+        <v>3984083.634455778</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>21.77914459409872</v>
+        <v>1116402.863485878</v>
       </c>
       <c r="G98">
-        <v>417.0571944247324</v>
+        <v>4841718.91557597</v>
       </c>
       <c r="H98">
-        <v>1533.237740786157</v>
+        <v>3986278.794215058</v>
       </c>
       <c r="I98">
-        <v>777.1248270229592</v>
+        <v>1117081.330240617</v>
       </c>
       <c r="J98">
-        <v>-77.20243103739787</v>
+        <v>4841132.002194193</v>
       </c>
       <c r="K98">
-        <v>-727.483507965898</v>
+        <v>3983751.186958373</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>21.48292395045826</v>
+        <v>1116402.305694292</v>
       </c>
       <c r="G99">
-        <v>430.9850544098512</v>
+        <v>4841735.428394808</v>
       </c>
       <c r="H99">
-        <v>1539.80173202635</v>
+        <v>3986287.000277499</v>
       </c>
       <c r="I99">
-        <v>868.0507122915583</v>
+        <v>1117165.619619386</v>
       </c>
       <c r="J99">
-        <v>-118.0206283492614</v>
+        <v>4841083.350598461</v>
       </c>
       <c r="K99">
-        <v>-1137.979188348404</v>
+        <v>3983403.590812125</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>21.19846766686467</v>
+        <v>1116401.770055318</v>
       </c>
       <c r="G100">
-        <v>444.91291439497</v>
+        <v>4841751.941213646</v>
       </c>
       <c r="H100">
-        <v>1546.190944786511</v>
+        <v>3986294.987838259</v>
       </c>
       <c r="I100">
-        <v>961.2155638346161</v>
+        <v>1117251.984546561</v>
       </c>
       <c r="J100">
-        <v>-158.8388256611249</v>
+        <v>4841034.699002731</v>
       </c>
       <c r="K100">
-        <v>-1566.364753243046</v>
+        <v>3983040.846017037</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>20.92501727325763</v>
+        <v>1116401.255140736</v>
       </c>
       <c r="G101">
-        <v>458.8407743800888</v>
+        <v>4841768.454032484</v>
       </c>
       <c r="H101">
-        <v>1552.414445774818</v>
+        <v>3986302.768232205</v>
       </c>
       <c r="I101">
-        <v>1056.674514136829</v>
+        <v>1117340.476130615</v>
       </c>
       <c r="J101">
-        <v>-199.657022972988</v>
+        <v>4840986.047406999</v>
       </c>
       <c r="K101">
-        <v>-2012.640202649822</v>
+        <v>3982662.952573105</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>20.66188102633387</v>
+        <v>1116400.759647975</v>
       </c>
       <c r="G102">
-        <v>472.7686343652076</v>
+        <v>4841784.966851321</v>
       </c>
       <c r="H102">
-        <v>1558.480613990452</v>
+        <v>3986310.351934458</v>
       </c>
       <c r="I102">
-        <v>1154.484053269612</v>
+        <v>1117431.146738515</v>
       </c>
       <c r="J102">
-        <v>-240.4752202848516</v>
+        <v>4840937.395811269</v>
       </c>
       <c r="K102">
-        <v>-2476.805536568738</v>
+        <v>3982269.910480333</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>20.40842654833145</v>
+        <v>1116400.282386251</v>
       </c>
       <c r="G103">
-        <v>486.6964943503264</v>
+        <v>4841801.47967016</v>
       </c>
       <c r="H103">
-        <v>1564.397208562159</v>
+        <v>3986317.748645197</v>
       </c>
       <c r="I103">
-        <v>1254.702062320412</v>
+        <v>1117524.050026718</v>
       </c>
       <c r="J103">
-        <v>-281.2934175967151</v>
+        <v>4840888.744215537</v>
       </c>
       <c r="K103">
-        <v>-2958.860754999792</v>
+        <v>3981861.719738717</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>20.16407443444616</v>
+        <v>1116399.822264527</v>
       </c>
       <c r="G104">
-        <v>500.6243543354452</v>
+        <v>4841817.992488998</v>
       </c>
       <c r="H104">
-        <v>1570.171428422879</v>
+        <v>3986324.967364265</v>
       </c>
       <c r="I104">
-        <v>1357.387847645211</v>
+        <v>1117619.240972925</v>
       </c>
       <c r="J104">
-        <v>-322.1116149085786</v>
+        <v>4840840.092619807</v>
       </c>
       <c r="K104">
-        <v>-3458.805857942983</v>
+        <v>3981438.380348261</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>19.92829268179117</v>
+        <v>1116399.378281028</v>
       </c>
       <c r="G105">
-        <v>514.5522143205641</v>
+        <v>4841834.505307836</v>
       </c>
       <c r="H105">
-        <v>1575.809964971759</v>
+        <v>3986332.016457004</v>
       </c>
       <c r="I105">
-        <v>1462.602175964443</v>
+        <v>1117716.775908607</v>
       </c>
       <c r="J105">
-        <v>-362.9298122204422</v>
+        <v>4840791.441024075</v>
       </c>
       <c r="K105">
-        <v>-3976.640845398311</v>
+        <v>3980999.892308962</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>19.70059181798934</v>
+        <v>1116398.949514064</v>
       </c>
       <c r="G106">
-        <v>528.4800743056828</v>
+        <v>4841851.018126674</v>
       </c>
       <c r="H106">
-        <v>1581.319048689789</v>
+        <v>3986338.903712537</v>
       </c>
       <c r="I106">
-        <v>1570.407310323127</v>
+        <v>1117816.712552351</v>
       </c>
       <c r="J106">
-        <v>-403.7480095323053</v>
+        <v>4840742.789428345</v>
       </c>
       <c r="K106">
-        <v>-4512.365717365773</v>
+        <v>3980546.255620822</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,22 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>19.48052062789383</v>
+        <v>1116398.535113985</v>
       </c>
       <c r="G107">
-        <v>542.4079342908016</v>
+        <v>4841867.530945512</v>
       </c>
       <c r="H107">
-        <v>1586.704490523441</v>
+        <v>3986345.636395495</v>
       </c>
       <c r="I107">
-        <v>1680.867046936491</v>
+        <v>1117919.110044006</v>
       </c>
       <c r="J107">
-        <v>-444.5662068441688</v>
+        <v>4840694.137832613</v>
       </c>
       <c r="K107">
-        <v>-5065.980473845376</v>
+        <v>3980077.470283839</v>
       </c>
     </row>
   </sheetData>
